--- a/Spi_DataSave/100091011046.xlsx
+++ b/Spi_DataSave/100091011046.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:G872"/>
+  <dimension ref="A2:G963"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28285,6 +28285,2894 @@
         </is>
       </c>
     </row>
+    <row r="873">
+      <c r="A873" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B873" t="inlineStr">
+        <is>
+          <t>content</t>
+        </is>
+      </c>
+      <c r="C873" t="inlineStr">
+        <is>
+          <t>creationTime</t>
+        </is>
+      </c>
+      <c r="D873" t="inlineStr">
+        <is>
+          <t>score</t>
+        </is>
+      </c>
+      <c r="E873" t="inlineStr">
+        <is>
+          <t>imageCount</t>
+        </is>
+      </c>
+      <c r="F873" t="inlineStr">
+        <is>
+          <t>status</t>
+        </is>
+      </c>
+      <c r="G873" t="inlineStr">
+        <is>
+          <t>reply</t>
+        </is>
+      </c>
+    </row>
+    <row r="874">
+      <c r="A874" t="inlineStr">
+        <is>
+          <t>21347449336</t>
+        </is>
+      </c>
+      <c r="B874" t="inlineStr">
+        <is>
+          <t>嘿嘿，说到这台联想拯救者电脑，我可是超级满意哦！从京东上下单后，物流速度超快，没几天就收到了。打开电脑，那颜值简直爆表，设计感十足，让人一眼就爱上。用起来更是顺畅得不得了，无论是玩游戏还是处理大型文件，都毫无压力。散热系统也很给力，长时间使用也不会发热。总的来说，这台联想拯救者电脑性能强劲，绝对值得入手！</t>
+        </is>
+      </c>
+      <c r="C874" t="inlineStr">
+        <is>
+          <t>2024-09-10 20:22:03</t>
+        </is>
+      </c>
+      <c r="D874" t="n">
+        <v>5</v>
+      </c>
+      <c r="E874" t="n">
+        <v>3</v>
+      </c>
+      <c r="F874" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="875">
+      <c r="A875" t="inlineStr">
+        <is>
+          <t>21031350837</t>
+        </is>
+      </c>
+      <c r="B875" t="inlineStr">
+        <is>
+          <t>包装保护：京东专用包装盒，内衬垫防护到位。
+外形外观：16寸大小适中，颜色也可以。
+画面品质：高清画质，看电影游戏画面逼真
+运行速度：可以不卡顿
+游戏效果：流畅运行速度也很快</t>
+        </is>
+      </c>
+      <c r="C875" t="inlineStr">
+        <is>
+          <t>2024-07-05 20:52:21</t>
+        </is>
+      </c>
+      <c r="D875" t="n">
+        <v>5</v>
+      </c>
+      <c r="E875" t="n">
+        <v>5</v>
+      </c>
+      <c r="F875" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="876">
+      <c r="A876" t="inlineStr">
+        <is>
+          <t>21309960268</t>
+        </is>
+      </c>
+      <c r="B876" t="inlineStr">
+        <is>
+          <t>电脑很好，很不错，刚收到，包装是新的，日期是8月23日的。补贴真的很香，而且电脑性能特别好，4070打黑神话悟空真的嘎嘎流畅，而且看视频也特别清楚。画质特别好，而且还是高色域的屏幕特别喜欢，下次还会买。</t>
+        </is>
+      </c>
+      <c r="C876" t="inlineStr">
+        <is>
+          <t>2024-09-02 11:32:35</t>
+        </is>
+      </c>
+      <c r="D876" t="n">
+        <v>5</v>
+      </c>
+      <c r="E876" t="n">
+        <v>2</v>
+      </c>
+      <c r="F876" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="877">
+      <c r="A877" t="inlineStr">
+        <is>
+          <t>20782844107</t>
+        </is>
+      </c>
+      <c r="B877" t="inlineStr">
+        <is>
+          <t>联想是老牌子了 在我小时候就已经有了 现在长大了 买电脑还是买联想 心里放心 使用感受说一下吧 Y7000p2024 对我来说 已经使用两个月了 很不错 我没有遇到技术上的问题 而且游戏表现也很不错 24款y7000p的散热真不是我吹 CPU和GPU的温度把控的特别好 打游戏温度都不超过87度 外观也很不错 屏幕比例真的是吸引我的第一点 没有大下巴 很好看</t>
+        </is>
+      </c>
+      <c r="C877" t="inlineStr">
+        <is>
+          <t>2024-05-09 12:13:45</t>
+        </is>
+      </c>
+      <c r="D877" t="n">
+        <v>5</v>
+      </c>
+      <c r="E877" t="n">
+        <v>1</v>
+      </c>
+      <c r="F877" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="878">
+      <c r="A878" t="inlineStr">
+        <is>
+          <t>20559755385</t>
+        </is>
+      </c>
+      <c r="B878" t="inlineStr">
+        <is>
+          <t>看了很多测评最终选的这个电脑。其实本身对游戏需求不是很高，主要是想拿来做科研生产力。不得不说新一代i7加上4070确实很不错，使用起来很舒服流程，一些小一点的模型也终于可以在本机上训练了。而且有了这颗显卡，steam上的游戏几乎完全不用看配置要求了，偶尔的娱乐需求也都可以满足。电脑本体重量确实还好，也没那么重的恐怖，主要是原装充电器真的太大太笨重了，买了个c140就特别舒服了。</t>
+        </is>
+      </c>
+      <c r="C878" t="inlineStr">
+        <is>
+          <t>2024-03-09 13:25:10</t>
+        </is>
+      </c>
+      <c r="D878" t="n">
+        <v>5</v>
+      </c>
+      <c r="E878" t="n">
+        <v>0</v>
+      </c>
+      <c r="F878" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="879">
+      <c r="A879" t="inlineStr">
+        <is>
+          <t>20832878624</t>
+        </is>
+      </c>
+      <c r="B879" t="inlineStr">
+        <is>
+          <t>我最近入手了一台拯救者Y7000P，用了一段时间，感觉整体还不错，暂时未有不舒适感。
+优点:首先，电脑外观设计有高级感，低调又不失霸气，金属机身摸起来质感满满，拿在手里沉甸甸的。
+其次，开机速度很快，我试了试打开几个大型软件，一点不卡顿，运行流畅。
+最后，笔记本的散热性能整体不错，散热效果好，但为了保护电脑建议还是买个散热器。
+总之，拯救者Y7000P给我的感觉就是:性能强悍，无论是日常使用还是游戏娱乐，都能满足我的需求。
+客服很不错哦！好评！</t>
+        </is>
+      </c>
+      <c r="C879" t="inlineStr">
+        <is>
+          <t>2024-05-22 02:54:02</t>
+        </is>
+      </c>
+      <c r="D879" t="n">
+        <v>5</v>
+      </c>
+      <c r="E879" t="n">
+        <v>3</v>
+      </c>
+      <c r="F879" t="n">
+        <v>1</v>
+      </c>
+      <c r="G879" t="inlineStr">
+        <is>
+          <t>0. 写尽千山落笔是您，望尽星辰美丽是您。有您的喜欢，我们甚是欢喜~我们会继续努力，用更好的产品来回报您的喜爱，感谢您的我们的支持~</t>
+        </is>
+      </c>
+    </row>
+    <row r="880">
+      <c r="A880" t="inlineStr">
+        <is>
+          <t>21347654532</t>
+        </is>
+      </c>
+      <c r="B880" t="inlineStr">
+        <is>
+          <t>拯救者Y7000P，用了一段时间，感觉整体还不错，暂时未有不舒运感。优点：首先，电脑外观设计有高级感，金属机身摸起来质感满满，拿在手里沉甸甸的。 其次，开机速度很快，我试了试打开几个大型软件，一点不卡顿，运行流畅。 最后，笔记本的散热性能整体不错，散热效果好，但为了保护电脑建议还是买个散热器。 总之，拯救者Y7000P给我的感觉就是：性能强悍，无论是日常使用还是游戏娱乐，都能满足我的需求。 客服很不错</t>
+        </is>
+      </c>
+      <c r="C880" t="inlineStr">
+        <is>
+          <t>2024-09-10 21:11:48</t>
+        </is>
+      </c>
+      <c r="D880" t="n">
+        <v>5</v>
+      </c>
+      <c r="E880" t="n">
+        <v>2</v>
+      </c>
+      <c r="F880" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="881">
+      <c r="A881" t="inlineStr">
+        <is>
+          <t>21020761916</t>
+        </is>
+      </c>
+      <c r="B881" t="inlineStr">
+        <is>
+          <t>包装保护：完好，原封标贴撕下有水印，有出风口装饰条，充电适配器插头有插头套，说明书与三包凭证都在，各插口完好，D面SN码与包装箱SN码一致，D面螺丝无拆修痕迹
+外形外观：完好，无磕碰与指纹
+画面品质：画面品质：2560*1600分辨率 165hz无漏光现象，是京东方的显示屏，很标准
+跑分评测：CPU烤机功耗在70瓦左右，显卡功耗在100瓦左右，跑分150w
+运行速度：还不错
+游戏效果：3A畅玩</t>
+        </is>
+      </c>
+      <c r="C881" t="inlineStr">
+        <is>
+          <t>2024-07-03 01:03:50</t>
+        </is>
+      </c>
+      <c r="D881" t="n">
+        <v>5</v>
+      </c>
+      <c r="E881" t="n">
+        <v>3</v>
+      </c>
+      <c r="F881" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="882">
+      <c r="A882" t="inlineStr">
+        <is>
+          <t>21586689240</t>
+        </is>
+      </c>
+      <c r="B882" t="inlineStr">
+        <is>
+          <t>性能很给力，配置无敌了。游戏无压力😆
+包装保护：包装很精美厚实
+外形外观：外形很好看👍
+画面品质：画质给力
+跑分评测：很好很强大
+运行速度：速度给力，十分顺畅
+游戏效果：无任何压力，效果很好很牛</t>
+        </is>
+      </c>
+      <c r="C882" t="inlineStr">
+        <is>
+          <t>2024-10-19 13:16:06</t>
+        </is>
+      </c>
+      <c r="D882" t="n">
+        <v>5</v>
+      </c>
+      <c r="E882" t="n">
+        <v>2</v>
+      </c>
+      <c r="F882" t="n">
+        <v>1</v>
+      </c>
+      <c r="G882" t="inlineStr">
+        <is>
+          <t>无回复</t>
+        </is>
+      </c>
+    </row>
+    <row r="883">
+      <c r="A883" t="inlineStr">
+        <is>
+          <t>21653666006</t>
+        </is>
+      </c>
+      <c r="B883" t="inlineStr">
+        <is>
+          <t>包装保护：包装特别好，非常给力。
+外形外观：外形很漂亮，外观漂亮。
+画面品质：画面品质特别棒，给力。
+跑分评测：跑分非常高，特别给力。配置很高。
+运行速度：运行速度很快，非常给力。
+游戏效果：游戏效果特别棒。</t>
+        </is>
+      </c>
+      <c r="C883" t="inlineStr">
+        <is>
+          <t>2024-10-28 12:55:07</t>
+        </is>
+      </c>
+      <c r="D883" t="n">
+        <v>5</v>
+      </c>
+      <c r="E883" t="n">
+        <v>2</v>
+      </c>
+      <c r="F883" t="n">
+        <v>1</v>
+      </c>
+      <c r="G883" t="inlineStr">
+        <is>
+          <t>无回复</t>
+        </is>
+      </c>
+    </row>
+    <row r="884">
+      <c r="A884" t="inlineStr">
+        <is>
+          <t>21635037008</t>
+        </is>
+      </c>
+      <c r="B884" t="inlineStr">
+        <is>
+          <t>包装保护：双层包装，包装的很完美，没有任何破损
+外形外观：电脑外观没有任何瑕疵或者划痕，我国庆期间买的，生产日期是很新的，国家补贴只能说是刚刚出炉的新电脑
+画面品质：2.5k 的屏幕画面确实非常细腻，游戏画面也非常清晰 看着很舒服
+跑分评测：目前没有跑过分，4050 显卡也是很可以的，不要被网上的人说的一文不值，14 代 i74050 带游戏也是随便带 吃鸡 csgo 什么的手拿把掐
+运行速度：运行速度很快 目前没有卡顿，后期会继续回评
+游戏效果：游戏效果细腻，很好
+唯一的不足就是，拯救者这次国补就把单根 16g 内存换成了 8➕8 的内存，本来想加一条内存改成 32g ，现在就不行了 但是 8+8 的内存是三星的 我就不想再改了 ，日常游戏需求随便带</t>
+        </is>
+      </c>
+      <c r="C884" t="inlineStr">
+        <is>
+          <t>2024-10-25 14:49:30</t>
+        </is>
+      </c>
+      <c r="D884" t="n">
+        <v>5</v>
+      </c>
+      <c r="E884" t="n">
+        <v>2</v>
+      </c>
+      <c r="F884" t="n">
+        <v>1</v>
+      </c>
+      <c r="G884" t="inlineStr">
+        <is>
+          <t>无回复</t>
+        </is>
+      </c>
+    </row>
+    <row r="885">
+      <c r="A885" t="inlineStr">
+        <is>
+          <t>21568458290</t>
+        </is>
+      </c>
+      <c r="B885" t="inlineStr">
+        <is>
+          <t>包装保护：京东快递值得信赖，货物完好。
+外形外观：银色低调奢华，很喜欢。
+画面品质：4070值得拥有，2k画质流畅游玩。
+运行速度：开机很快，新电脑。
+游戏效果：流畅运行2k黑神话。</t>
+        </is>
+      </c>
+      <c r="C885" t="inlineStr">
+        <is>
+          <t>2024-10-16 16:02:03</t>
+        </is>
+      </c>
+      <c r="D885" t="n">
+        <v>5</v>
+      </c>
+      <c r="E885" t="n">
+        <v>3</v>
+      </c>
+      <c r="F885" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="886">
+      <c r="A886" t="inlineStr">
+        <is>
+          <t>21567041003</t>
+        </is>
+      </c>
+      <c r="B886" t="inlineStr">
+        <is>
+          <t>包装保护：严实
+外形外观：大气，漂亮
+画面品质：频幕分辨率高，用眼舒服
+物流发货速度，电脑外观设计很舒服，电脑运行正常，游戏本质量很好，这个配置对于大一新生来说，完全够用了。</t>
+        </is>
+      </c>
+      <c r="C886" t="inlineStr">
+        <is>
+          <t>2024-10-16 12:17:03</t>
+        </is>
+      </c>
+      <c r="D886" t="n">
+        <v>5</v>
+      </c>
+      <c r="E886" t="n">
+        <v>3</v>
+      </c>
+      <c r="F886" t="n">
+        <v>1</v>
+      </c>
+      <c r="G886" t="inlineStr">
+        <is>
+          <t>无回复</t>
+        </is>
+      </c>
+    </row>
+    <row r="887">
+      <c r="A887" t="inlineStr">
+        <is>
+          <t>21637006742</t>
+        </is>
+      </c>
+      <c r="B887" t="inlineStr">
+        <is>
+          <t>Y7000P真的是一款让人爱不释手的游戏笔记本呢~ (✿◠‿◠) 从外观上看，它的设计时尚大气，线条流畅，充满了科技感。性能方面更是没得说，处理器和显卡都是顶级的，玩游戏、做设计都超级流畅，完全不会卡顿。屏幕显示效果也非常棒，色彩鲜艳，画面细腻。散热系统也很给力，长时间使用也不会过热。总之，Y7000P是一款性价比超高的游戏笔记本，无论是外观还是性能都让我非常满意~ (≧▽≦)</t>
+        </is>
+      </c>
+      <c r="C887" t="inlineStr">
+        <is>
+          <t>2024-10-25 19:16:50</t>
+        </is>
+      </c>
+      <c r="D887" t="n">
+        <v>5</v>
+      </c>
+      <c r="E887" t="n">
+        <v>2</v>
+      </c>
+      <c r="F887" t="n">
+        <v>1</v>
+      </c>
+      <c r="G887" t="inlineStr">
+        <is>
+          <t>无回复</t>
+        </is>
+      </c>
+    </row>
+    <row r="888">
+      <c r="A888" t="inlineStr">
+        <is>
+          <t>21657654331</t>
+        </is>
+      </c>
+      <c r="B888" t="inlineStr">
+        <is>
+          <t>很令人惊喜！延时低，反应迅速，操作精准。手感舒适，长时间使用也不累。颜值超高，炫酷外观十分吸睛。无论是激烈的电竞比赛还是日常办公，都能完美胜任。在和朋友组队开黑时，它更是助力我发挥出色，强烈推荐！</t>
+        </is>
+      </c>
+      <c r="C888" t="inlineStr">
+        <is>
+          <t>2024-10-28 22:57:44</t>
+        </is>
+      </c>
+      <c r="D888" t="n">
+        <v>5</v>
+      </c>
+      <c r="E888" t="n">
+        <v>4</v>
+      </c>
+      <c r="F888" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="889">
+      <c r="A889" t="inlineStr">
+        <is>
+          <t>21684879194</t>
+        </is>
+      </c>
+      <c r="B889" t="inlineStr">
+        <is>
+          <t>非常不错，国补到手非常划算。
+应该算是目前的一等奖。华星光电的屏幕，AX211网卡，记忆科技的内存（海力士颗粒）。唯一缺点固态是亿联的。
+验机检查没任何问题，硬盘通电时间次数正常，电池报告也查了，双烤正常。</t>
+        </is>
+      </c>
+      <c r="C889" t="inlineStr">
+        <is>
+          <t>2024-11-02 00:44:39</t>
+        </is>
+      </c>
+      <c r="D889" t="n">
+        <v>5</v>
+      </c>
+      <c r="E889" t="n">
+        <v>2</v>
+      </c>
+      <c r="F889" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="890">
+      <c r="A890" t="inlineStr">
+        <is>
+          <t>21678808087</t>
+        </is>
+      </c>
+      <c r="B890" t="inlineStr">
+        <is>
+          <t>买了Y7000P，使用体验非常满意！首先，它的性能非常强大，搭载的处理器和显卡让我在玩游戏和进行多任务处理时都非常流畅。其次，屏幕色彩鲜艳，画面清晰，让我在观看电影和玩游戏时感受到极佳的视觉享受。此外，键盘手感也很棒，适合长时间打字。散热效果优秀，长时间使用也不会过热。总的来说，这是一款性价比极高的笔记本电脑，非常值得推荐给大家！
+希望这段好评能帮到您！</t>
+        </is>
+      </c>
+      <c r="C890" t="inlineStr">
+        <is>
+          <t>2024-10-31 22:15:49</t>
+        </is>
+      </c>
+      <c r="D890" t="n">
+        <v>5</v>
+      </c>
+      <c r="E890" t="n">
+        <v>3</v>
+      </c>
+      <c r="F890" t="n">
+        <v>1</v>
+      </c>
+      <c r="G890" t="inlineStr">
+        <is>
+          <t>无回复</t>
+        </is>
+      </c>
+    </row>
+    <row r="891">
+      <c r="A891" t="inlineStr">
+        <is>
+          <t>21603755978</t>
+        </is>
+      </c>
+      <c r="B891" t="inlineStr">
+        <is>
+          <t>到货就拆包检查了，完好无损，非常感谢。运行速度很快，按键轻盈灵敏，反应很快。物流派送超出预期的快，很好很满意。谢谢老板。</t>
+        </is>
+      </c>
+      <c r="C891" t="inlineStr">
+        <is>
+          <t>2024-10-21 21:27:46</t>
+        </is>
+      </c>
+      <c r="D891" t="n">
+        <v>5</v>
+      </c>
+      <c r="E891" t="n">
+        <v>3</v>
+      </c>
+      <c r="F891" t="n">
+        <v>1</v>
+      </c>
+      <c r="G891" t="inlineStr">
+        <is>
+          <t>无回复</t>
+        </is>
+      </c>
+    </row>
+    <row r="892">
+      <c r="A892" t="inlineStr">
+        <is>
+          <t>21604939453</t>
+        </is>
+      </c>
+      <c r="B892" t="inlineStr">
+        <is>
+          <t>趁着活动赶紧买了一台，真的超级好用。性价比感觉超级高，联想这个大品牌也十分让人放心，京东发货很快，早上买的下午就到了，好评！</t>
+        </is>
+      </c>
+      <c r="C892" t="inlineStr">
+        <is>
+          <t>2024-10-22 02:41:23</t>
+        </is>
+      </c>
+      <c r="D892" t="n">
+        <v>5</v>
+      </c>
+      <c r="E892" t="n">
+        <v>3</v>
+      </c>
+      <c r="F892" t="n">
+        <v>1</v>
+      </c>
+      <c r="G892" t="inlineStr">
+        <is>
+          <t>无回复</t>
+        </is>
+      </c>
+    </row>
+    <row r="893">
+      <c r="A893" t="inlineStr">
+        <is>
+          <t>21700079657</t>
+        </is>
+      </c>
+      <c r="B893" t="inlineStr">
+        <is>
+          <t>包装保护：很好
+外形外观：好看
+画面品质：很好
+跑分评测：高
+运行速度：快
+游戏效果：好
+性能强悍，充电器也是重重的，运行很快，赶上双11赶紧买，买，买！就是有点发热！不过性能好，发热就加个风扇让他凉快凉快！</t>
+        </is>
+      </c>
+      <c r="C893" t="inlineStr">
+        <is>
+          <t>2024-11-04 17:16:39</t>
+        </is>
+      </c>
+      <c r="D893" t="n">
+        <v>5</v>
+      </c>
+      <c r="E893" t="n">
+        <v>4</v>
+      </c>
+      <c r="F893" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="894">
+      <c r="A894" t="inlineStr">
+        <is>
+          <t>21709747871</t>
+        </is>
+      </c>
+      <c r="B894" t="inlineStr">
+        <is>
+          <t>包装保护：包装结实，严实，没有破损。
+外形外观：外观好看。
+画面品质：画面高清，非常有质感。
+跑分评测：跑分效果超级好。
+运行速度：运行速度快！
+游戏效果：游戏流畅，玩起来毫无卡顿，体验非常好。</t>
+        </is>
+      </c>
+      <c r="C894" t="inlineStr">
+        <is>
+          <t>2024-11-06 09:52:17</t>
+        </is>
+      </c>
+      <c r="D894" t="n">
+        <v>5</v>
+      </c>
+      <c r="E894" t="n">
+        <v>3</v>
+      </c>
+      <c r="F894" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="895">
+      <c r="A895" t="inlineStr">
+        <is>
+          <t>21605703018</t>
+        </is>
+      </c>
+      <c r="B895" t="inlineStr">
+        <is>
+          <t>包装保护：包装好，质量好
+外形外观：外形美观大方大气
+画面品质：2K分辨率，非常清晰，屏幕素质好
+跑分评测：好
+运行速度：快
+游戏效果：不错</t>
+        </is>
+      </c>
+      <c r="C895" t="inlineStr">
+        <is>
+          <t>2024-10-22 09:41:04</t>
+        </is>
+      </c>
+      <c r="D895" t="n">
+        <v>5</v>
+      </c>
+      <c r="E895" t="n">
+        <v>2</v>
+      </c>
+      <c r="F895" t="n">
+        <v>1</v>
+      </c>
+      <c r="G895" t="inlineStr">
+        <is>
+          <t>无回复</t>
+        </is>
+      </c>
+    </row>
+    <row r="896">
+      <c r="A896" t="inlineStr">
+        <is>
+          <t>21748542024</t>
+        </is>
+      </c>
+      <c r="B896" t="inlineStr">
+        <is>
+          <t>首先，我想强调的是这款笔记本电脑的性能。
+它配备了强大的处理器和充足的内存，使得我在处理多任务时感到非常流畅。同时，它的散热系统也非常出色，即使在长时间高强度运行下，也能保持稳定的运行状态。
+其次，我非常满意它的屏幕和音频设备。屏幕分辦率高，色彩还原度好，让我在观看视频和玩游戏时享受到了极佳的视觉体验。音频设备也非常出色，无论是在听音乐还是看电影，都能提供清晰、真实的音效。
+此外，我还注意到了联想拯救者y7000p的设计。它采用了金属材质，外观简约大方，非常符合现代审美。同时，它的键盘手感也非常好，使用起来非常舒适。
+总的来说，我对联想拯救者y7000p非常满意。
+它不仅拥有出色的性能和优秀的硬件配置，还具有时尚的外观和舒适的使用体验。我强烈推荐这款笔记本电脑给那些需要高性能和优秀体验的消费者。
+当然，每个人的需求和喜好都不同，我建议在购买前，大家可以根据自己的实际需求和预算，仔细比较不同品牌和型号的笔记本电脑，</t>
+        </is>
+      </c>
+      <c r="C896" t="inlineStr">
+        <is>
+          <t>2024-11-10 16:00:12</t>
+        </is>
+      </c>
+      <c r="D896" t="n">
+        <v>5</v>
+      </c>
+      <c r="E896" t="n">
+        <v>3</v>
+      </c>
+      <c r="F896" t="n">
+        <v>1</v>
+      </c>
+      <c r="G896" t="inlineStr">
+        <is>
+          <t>无回复</t>
+        </is>
+      </c>
+    </row>
+    <row r="897">
+      <c r="A897" t="inlineStr">
+        <is>
+          <t>21693014747</t>
+        </is>
+      </c>
+      <c r="B897" t="inlineStr">
+        <is>
+          <t>包装保护：非常完整，非常安全。
+外形外观：非常高端，非常优雅
+画面品质：清晰透彻，看着非常舒服，打联盟很清晰，帧率也很高，打起来操作都流畅了。
+跑分评测：跑分很高，不输其他电脑</t>
+        </is>
+      </c>
+      <c r="C897" t="inlineStr">
+        <is>
+          <t>2024-11-03 15:33:28</t>
+        </is>
+      </c>
+      <c r="D897" t="n">
+        <v>5</v>
+      </c>
+      <c r="E897" t="n">
+        <v>4</v>
+      </c>
+      <c r="F897" t="n">
+        <v>1</v>
+      </c>
+      <c r="G897" t="inlineStr">
+        <is>
+          <t>无回复</t>
+        </is>
+      </c>
+    </row>
+    <row r="898">
+      <c r="A898" t="inlineStr">
+        <is>
+          <t>21302782275</t>
+        </is>
+      </c>
+      <c r="B898" t="inlineStr">
+        <is>
+          <t>没有赠品其他都挺好的</t>
+        </is>
+      </c>
+      <c r="C898" t="inlineStr">
+        <is>
+          <t>2024-08-31 19:29:26</t>
+        </is>
+      </c>
+      <c r="D898" t="n">
+        <v>3</v>
+      </c>
+      <c r="E898" t="n">
+        <v>0</v>
+      </c>
+      <c r="F898" t="n">
+        <v>1</v>
+      </c>
+      <c r="G898" t="inlineStr">
+        <is>
+          <t>0. 春夏秋冬爱似海，联想只为您存在~笔记本的官方标配中只有主机+电源适配器+三包凭证等纸质文档。具体赠品活动可以咨询在线客服确认下哦~我们有完善的售后服务可以为您保驾护航的，后续使用过程中有任何需要帮助的都可以直接回复我，或者咨询店铺在线工程师为您解答处理，我们一定帮您解决机器的问题，感谢您的支持，联想感恩一路与您相随，愿您事事顺心如意。</t>
+        </is>
+      </c>
+    </row>
+    <row r="899">
+      <c r="A899" t="inlineStr">
+        <is>
+          <t>21715400956</t>
+        </is>
+      </c>
+      <c r="B899" t="inlineStr">
+        <is>
+          <t>包装保护：包装有两三层，里面还有泡沫
+外形外观：外形很好看，游戏本里面算是比较薄的真的很不错
+画面品质：画面效果不错
+跑分评测：4070绝对够用
+运行速度：速度很快，很丝滑
+游戏效果：非常完美</t>
+        </is>
+      </c>
+      <c r="C899" t="inlineStr">
+        <is>
+          <t>2024-11-07 11:09:52</t>
+        </is>
+      </c>
+      <c r="D899" t="n">
+        <v>5</v>
+      </c>
+      <c r="E899" t="n">
+        <v>3</v>
+      </c>
+      <c r="F899" t="n">
+        <v>1</v>
+      </c>
+      <c r="G899" t="inlineStr">
+        <is>
+          <t>无回复</t>
+        </is>
+      </c>
+    </row>
+    <row r="900">
+      <c r="A900" t="inlineStr">
+        <is>
+          <t>21736687005</t>
+        </is>
+      </c>
+      <c r="B900" t="inlineStr">
+        <is>
+          <t>包装保护：很好
+外形外观：简约大气
+画面品质：很清晰
+跑分评测：高
+运行速度：非常快
+这款电脑真的爱了，外表简约大气、设计感十足，让人一眼就爱上，超级满意，物流也是超级快呢，非常推荐</t>
+        </is>
+      </c>
+      <c r="C900" t="inlineStr">
+        <is>
+          <t>2024-11-09 12:42:40</t>
+        </is>
+      </c>
+      <c r="D900" t="n">
+        <v>5</v>
+      </c>
+      <c r="E900" t="n">
+        <v>2</v>
+      </c>
+      <c r="F900" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="901">
+      <c r="A901" t="inlineStr">
+        <is>
+          <t>21584005068</t>
+        </is>
+      </c>
+      <c r="B901" t="inlineStr">
+        <is>
+          <t>电脑以下是一些关于电脑的好评示例：
+1. &amp;quot;这台电脑的性能非常出色，运行速度飞快，无论是处理文档还是玩游戏都能轻松应对。而且它的散热效果也很好，长时间使用也不会感到过热。&amp;quot;
+2. &amp;quot;我非常喜欢这款电脑的屏幕分辨率，显示效果非常清晰细腻。键盘手感也很好，打字起来非常舒适。此外，电脑的重量也很轻，移动起来非常方便。&amp;quot;
+3. &amp;quot;这款电脑的操作非常简单，即使是对电脑不熟悉的人也能轻松上手。而且它还有很丰富的软件支持，可以满足我的各种需求。&amp;quot;
+4. &amp;quot;电脑的性能稳定可靠，我已经用了很长时间了，从未出现过任何问题。而且它的售后服务也非常周到，让我感到非常满意。&amp;quot;
+5. &amp;quot;这款电脑的外观设计非常精美，线条流畅，颜色也很时尚。它非常适合办公室或家庭使用，可以让我更加高效地工作或娱乐。&amp;quot;好评</t>
+        </is>
+      </c>
+      <c r="C901" t="inlineStr">
+        <is>
+          <t>2024-10-18 23:37:41</t>
+        </is>
+      </c>
+      <c r="D901" t="n">
+        <v>5</v>
+      </c>
+      <c r="E901" t="n">
+        <v>2</v>
+      </c>
+      <c r="F901" t="n">
+        <v>1</v>
+      </c>
+      <c r="G901" t="inlineStr">
+        <is>
+          <t>无回复</t>
+        </is>
+      </c>
+    </row>
+    <row r="902">
+      <c r="A902" t="inlineStr">
+        <is>
+          <t>21750308487</t>
+        </is>
+      </c>
+      <c r="B902" t="inlineStr">
+        <is>
+          <t>包装保护：收到完好无损
+外形外观：帅气，黑色很好看。
+画面品质：分辨率很高。
+运行速度：刚开始开机很慢，需要自己禁止一下启动。
+游戏效果：打游戏一点都不卡，办公游戏完全没问题的，非常满意！</t>
+        </is>
+      </c>
+      <c r="C902" t="inlineStr">
+        <is>
+          <t>2024-11-10 20:46:50</t>
+        </is>
+      </c>
+      <c r="D902" t="n">
+        <v>5</v>
+      </c>
+      <c r="E902" t="n">
+        <v>2</v>
+      </c>
+      <c r="F902" t="n">
+        <v>1</v>
+      </c>
+      <c r="G902" t="inlineStr">
+        <is>
+          <t>无回复</t>
+        </is>
+      </c>
+    </row>
+    <row r="903">
+      <c r="A903" t="inlineStr">
+        <is>
+          <t>21740213268</t>
+        </is>
+      </c>
+      <c r="B903" t="inlineStr">
+        <is>
+          <t>电脑很好, 很不错, 刚收到, 包裝是新的。补贴真的很 香, 而且电脑性能特别好, 4070打 黑神话悟空真的嘎嘎流畅, 而且看视频也特别清楚。画 质特别好, 而且还是高色域的屏幕特别喜欢, 下次还会 
+买。</t>
+        </is>
+      </c>
+      <c r="C903" t="inlineStr">
+        <is>
+          <t>2024-11-09 21:53:41</t>
+        </is>
+      </c>
+      <c r="D903" t="n">
+        <v>5</v>
+      </c>
+      <c r="E903" t="n">
+        <v>3</v>
+      </c>
+      <c r="F903" t="n">
+        <v>1</v>
+      </c>
+      <c r="G903" t="inlineStr">
+        <is>
+          <t>无回复</t>
+        </is>
+      </c>
+    </row>
+    <row r="904">
+      <c r="A904" t="inlineStr">
+        <is>
+          <t>21735353392</t>
+        </is>
+      </c>
+      <c r="B904" t="inlineStr">
+        <is>
+          <t>包装保护：外包装和内包装都完美，无破损，电脑保护的很好。
+外形外观：外观方正，颜色大气。
+画面品质：画面看清来很清楚。
+运行速度：买来办公的，运行速度很快，开机也很快。烤鸡半小时无异常。</t>
+        </is>
+      </c>
+      <c r="C904" t="inlineStr">
+        <is>
+          <t>2024-11-09 10:26:37</t>
+        </is>
+      </c>
+      <c r="D904" t="n">
+        <v>5</v>
+      </c>
+      <c r="E904" t="n">
+        <v>3</v>
+      </c>
+      <c r="F904" t="n">
+        <v>1</v>
+      </c>
+      <c r="G904" t="inlineStr">
+        <is>
+          <t>无回复</t>
+        </is>
+      </c>
+    </row>
+    <row r="905">
+      <c r="A905" t="inlineStr">
+        <is>
+          <t>21697886247</t>
+        </is>
+      </c>
+      <c r="B905" t="inlineStr">
+        <is>
+          <t>电脑收到了，用了一段时间才来评价，整体感觉真不错！
+包装保护：包装保护的很好
+外形外观：外观设计简洁大气
+画面品质：画质很好
+跑分评测：跑分挺高的
+运行速度：速度非常快
+游戏效果：游戏体验非常好</t>
+        </is>
+      </c>
+      <c r="C905" t="inlineStr">
+        <is>
+          <t>2024-11-04 11:11:19</t>
+        </is>
+      </c>
+      <c r="D905" t="n">
+        <v>5</v>
+      </c>
+      <c r="E905" t="n">
+        <v>3</v>
+      </c>
+      <c r="F905" t="n">
+        <v>1</v>
+      </c>
+      <c r="G905" t="inlineStr">
+        <is>
+          <t>无回复</t>
+        </is>
+      </c>
+    </row>
+    <row r="906">
+      <c r="A906" t="inlineStr">
+        <is>
+          <t>21646686978</t>
+        </is>
+      </c>
+      <c r="B906" t="inlineStr">
+        <is>
+          <t>包装保护：好好好还好好好好好好
+外形外观：好看好看好看好看
+画面品质：不错不错不错
+跑分评测：没弄这个
+运行速度：感觉挺好 正常点击打开都很快  也毕竟是新的哈 没什么问题也
+游戏效果：没玩游戏</t>
+        </is>
+      </c>
+      <c r="C906" t="inlineStr">
+        <is>
+          <t>2024-10-27 10:22:03</t>
+        </is>
+      </c>
+      <c r="D906" t="n">
+        <v>5</v>
+      </c>
+      <c r="E906" t="n">
+        <v>3</v>
+      </c>
+      <c r="F906" t="n">
+        <v>1</v>
+      </c>
+      <c r="G906" t="inlineStr">
+        <is>
+          <t>无回复</t>
+        </is>
+      </c>
+    </row>
+    <row r="907">
+      <c r="A907" t="inlineStr">
+        <is>
+          <t>21672397723</t>
+        </is>
+      </c>
+      <c r="B907" t="inlineStr">
+        <is>
+          <t>拯救者 R9000 电脑简直太出色了！外观设计炫酷，金属质感十足。性能方面更是强大，运行速度飞快，各种大型软件和游戏都能轻松应对。散热效果也极佳，长时间使用也不会过热。屏幕显示清晰细腻，色彩鲜艳。续航能力不错，携带方便。总之，是一款非常值得购买的电脑，强烈推荐！</t>
+        </is>
+      </c>
+      <c r="C907" t="inlineStr">
+        <is>
+          <t>2024-10-30 21:48:03</t>
+        </is>
+      </c>
+      <c r="D907" t="n">
+        <v>5</v>
+      </c>
+      <c r="E907" t="n">
+        <v>2</v>
+      </c>
+      <c r="F907" t="n">
+        <v>1</v>
+      </c>
+      <c r="G907" t="inlineStr">
+        <is>
+          <t>无回复</t>
+        </is>
+      </c>
+    </row>
+    <row r="908">
+      <c r="A908" t="inlineStr">
+        <is>
+          <t>21699739992</t>
+        </is>
+      </c>
+      <c r="B908" t="inlineStr">
+        <is>
+          <t>电脑很好，很不错，刚收到，包装是新的。补贴真的很香，而且电脑性能特别好，4070打
+黑神话悟空真的嘎嘎流畅，而且看视频也特别清楚。画
+质特别好，而且还是高色域的屏幕特别喜欢，下次还会
+买。</t>
+        </is>
+      </c>
+      <c r="C908" t="inlineStr">
+        <is>
+          <t>2024-11-04 16:18:20</t>
+        </is>
+      </c>
+      <c r="D908" t="n">
+        <v>5</v>
+      </c>
+      <c r="E908" t="n">
+        <v>3</v>
+      </c>
+      <c r="F908" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="909">
+      <c r="A909" t="inlineStr">
+        <is>
+          <t>21680099117</t>
+        </is>
+      </c>
+      <c r="B909" t="inlineStr">
+        <is>
+          <t>包装保护：包装很好 最外面有一点破损
+外形外观：外形很好看很帅
+画面品质：2.5画质简单好看多了
+游戏效果：游戏画质开超高也不卡
+运行速度：运行速度很快 4060显卡还可以</t>
+        </is>
+      </c>
+      <c r="C909" t="inlineStr">
+        <is>
+          <t>2024-11-01 08:41:44</t>
+        </is>
+      </c>
+      <c r="D909" t="n">
+        <v>5</v>
+      </c>
+      <c r="E909" t="n">
+        <v>3</v>
+      </c>
+      <c r="F909" t="n">
+        <v>1</v>
+      </c>
+      <c r="G909" t="inlineStr">
+        <is>
+          <t>无回复</t>
+        </is>
+      </c>
+    </row>
+    <row r="910">
+      <c r="A910" t="inlineStr">
+        <is>
+          <t>21645107024</t>
+        </is>
+      </c>
+      <c r="B910" t="inlineStr">
+        <is>
+          <t>包装保护：不赖
+外形外观：设计还行
+画面品质：游戏本不用多说
+跑分评测：同上
+运行速度：系统累赘，不需要的插件很多，很烦最好在win上精简，取消不需要的插件
+游戏效果：没问题整体游戏效果还行。</t>
+        </is>
+      </c>
+      <c r="C910" t="inlineStr">
+        <is>
+          <t>2024-10-26 23:00:39</t>
+        </is>
+      </c>
+      <c r="D910" t="n">
+        <v>5</v>
+      </c>
+      <c r="E910" t="n">
+        <v>2</v>
+      </c>
+      <c r="F910" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="911">
+      <c r="A911" t="inlineStr">
+        <is>
+          <t>21737400781</t>
+        </is>
+      </c>
+      <c r="B911" t="inlineStr">
+        <is>
+          <t>这个质量非常好，孩子们都特别喜欢吃，版型很好，面料细腻，尺码合适，沾杯还持妆久，橘色系更加显白，洗完很柔顺头发一点也不油，屏幕清晰运行流畅，敏感肌也可以用，握感属实不伤牙龈，每次炒菜我都会放一点，很满意[送心]</t>
+        </is>
+      </c>
+      <c r="C911" t="inlineStr">
+        <is>
+          <t>2024-11-09 15:02:18</t>
+        </is>
+      </c>
+      <c r="D911" t="n">
+        <v>5</v>
+      </c>
+      <c r="E911" t="n">
+        <v>2</v>
+      </c>
+      <c r="F911" t="n">
+        <v>1</v>
+      </c>
+      <c r="G911" t="inlineStr">
+        <is>
+          <t>无回复</t>
+        </is>
+      </c>
+    </row>
+    <row r="912">
+      <c r="A912" t="inlineStr">
+        <is>
+          <t>21665650202</t>
+        </is>
+      </c>
+      <c r="B912" t="inlineStr">
+        <is>
+          <t>包装保护：包装非常好。，
+外形外观：外观非常漂亮
+画面品质：清晰，画面清晰
+运行速度：速度非常快。
+游戏效果：游戏效果没得说。杠杠的。</t>
+        </is>
+      </c>
+      <c r="C912" t="inlineStr">
+        <is>
+          <t>2024-10-30 06:42:34</t>
+        </is>
+      </c>
+      <c r="D912" t="n">
+        <v>5</v>
+      </c>
+      <c r="E912" t="n">
+        <v>2</v>
+      </c>
+      <c r="F912" t="n">
+        <v>1</v>
+      </c>
+      <c r="G912" t="inlineStr">
+        <is>
+          <t>无回复</t>
+        </is>
+      </c>
+    </row>
+    <row r="913">
+      <c r="A913" t="inlineStr">
+        <is>
+          <t>21617590719</t>
+        </is>
+      </c>
+      <c r="B913" t="inlineStr">
+        <is>
+          <t>非常好 外观好看
+包装保护：严实
+外形外观：好看
+画面品质：清楚
+跑分评测：不错
+运行速度：快
+游戏效果：棒</t>
+        </is>
+      </c>
+      <c r="C913" t="inlineStr">
+        <is>
+          <t>2024-10-23 14:17:34</t>
+        </is>
+      </c>
+      <c r="D913" t="n">
+        <v>5</v>
+      </c>
+      <c r="E913" t="n">
+        <v>2</v>
+      </c>
+      <c r="F913" t="n">
+        <v>1</v>
+      </c>
+      <c r="G913" t="inlineStr">
+        <is>
+          <t>无回复</t>
+        </is>
+      </c>
+    </row>
+    <row r="914">
+      <c r="A914" t="inlineStr">
+        <is>
+          <t>21600332359</t>
+        </is>
+      </c>
+      <c r="B914" t="inlineStr">
+        <is>
+          <t>联想电脑真的很棒！性能强劲，无论是日常办公软件的运行，还是大型游戏、专业软件的使用都能轻松应对。屏幕显示清晰，色彩鲜艳，视觉体验超棒。外观设计简约时尚，质感十足。散热良好，长时间使用也稳定可靠。而且联想的售后也让人放心，好评！</t>
+        </is>
+      </c>
+      <c r="C914" t="inlineStr">
+        <is>
+          <t>2024-10-21 14:13:18</t>
+        </is>
+      </c>
+      <c r="D914" t="n">
+        <v>5</v>
+      </c>
+      <c r="E914" t="n">
+        <v>2</v>
+      </c>
+      <c r="F914" t="n">
+        <v>1</v>
+      </c>
+      <c r="G914" t="inlineStr">
+        <is>
+          <t>无回复</t>
+        </is>
+      </c>
+    </row>
+    <row r="915">
+      <c r="A915" t="inlineStr">
+        <is>
+          <t>21605298687</t>
+        </is>
+      </c>
+      <c r="B915" t="inlineStr">
+        <is>
+          <t>包装保护：外包装很好，两层保护。
+外形外观：大气，很漂亮，喜欢。
+画面品质：屏幕分辨率高，画质清晰，用眼不会不舒服，电脑运行正常。</t>
+        </is>
+      </c>
+      <c r="C915" t="inlineStr">
+        <is>
+          <t>2024-10-22 08:16:52</t>
+        </is>
+      </c>
+      <c r="D915" t="n">
+        <v>5</v>
+      </c>
+      <c r="E915" t="n">
+        <v>2</v>
+      </c>
+      <c r="F915" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="916">
+      <c r="A916" t="inlineStr">
+        <is>
+          <t>21750959788</t>
+        </is>
+      </c>
+      <c r="B916" t="inlineStr">
+        <is>
+          <t>外形外观：16寸大小适中,颜色也可以。
+画面品质:高清画质,看电影游戏画面逼真
+运行速度:可以不卡顿
+游戏效果:流畅运行速度也很快
+中规中矩</t>
+        </is>
+      </c>
+      <c r="C916" t="inlineStr">
+        <is>
+          <t>2024-11-10 22:10:20</t>
+        </is>
+      </c>
+      <c r="D916" t="n">
+        <v>5</v>
+      </c>
+      <c r="E916" t="n">
+        <v>2</v>
+      </c>
+      <c r="F916" t="n">
+        <v>1</v>
+      </c>
+      <c r="G916" t="inlineStr">
+        <is>
+          <t>无回复</t>
+        </is>
+      </c>
+    </row>
+    <row r="917">
+      <c r="A917" t="inlineStr">
+        <is>
+          <t>21612073536</t>
+        </is>
+      </c>
+      <c r="B917" t="inlineStr">
+        <is>
+          <t>这款笔记本电脑性能出色，运行速度快，无论是办公、学习还是娱乐都十分流畅。屏幕清晰，色彩表现很好，音质也很棒。轻薄便携，电池续航也不错，满足日常需求。键盘手感舒适，散热效果也很理想，性价比非常高，值得推荐！</t>
+        </is>
+      </c>
+      <c r="C917" t="inlineStr">
+        <is>
+          <t>2024-10-22 21:15:09</t>
+        </is>
+      </c>
+      <c r="D917" t="n">
+        <v>5</v>
+      </c>
+      <c r="E917" t="n">
+        <v>2</v>
+      </c>
+      <c r="F917" t="n">
+        <v>1</v>
+      </c>
+      <c r="G917" t="inlineStr">
+        <is>
+          <t>无回复</t>
+        </is>
+      </c>
+    </row>
+    <row r="918">
+      <c r="A918" t="inlineStr">
+        <is>
+          <t>21575441050</t>
+        </is>
+      </c>
+      <c r="B918" t="inlineStr">
+        <is>
+          <t>开机速度很快，我试了试打开几个大型软件，一点不卡顿，运行流畅。最后，笔记本的散热性能整体不错，散热效果好，但为了保护电脑建议还是买个散热器。总之，拯救者Y7000P给我的感觉就是:性能强悍，无论是日常使用还是游戏娱乐，都能满足我的需求。客服很不错哦！好评！</t>
+        </is>
+      </c>
+      <c r="C918" t="inlineStr">
+        <is>
+          <t>2024-10-17 16:53:15</t>
+        </is>
+      </c>
+      <c r="D918" t="n">
+        <v>5</v>
+      </c>
+      <c r="E918" t="n">
+        <v>2</v>
+      </c>
+      <c r="F918" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="919">
+      <c r="A919" t="inlineStr">
+        <is>
+          <t>21622240805</t>
+        </is>
+      </c>
+      <c r="B919" t="inlineStr">
+        <is>
+          <t>包装保护：非常安全的包装，气泡，泡沫装箱都很安全
+跑分评测：非常好，跑分很高，cpu 非常给力
+外形外观：拯救者在外观上中规中矩，算是比较领先的设计。
+运行速度：跑起来很棒，运行专业软件用的。</t>
+        </is>
+      </c>
+      <c r="C919" t="inlineStr">
+        <is>
+          <t>2024-10-23 22:32:25</t>
+        </is>
+      </c>
+      <c r="D919" t="n">
+        <v>5</v>
+      </c>
+      <c r="E919" t="n">
+        <v>2</v>
+      </c>
+      <c r="F919" t="n">
+        <v>1</v>
+      </c>
+      <c r="G919" t="inlineStr">
+        <is>
+          <t>无回复</t>
+        </is>
+      </c>
+    </row>
+    <row r="920">
+      <c r="A920" t="inlineStr">
+        <is>
+          <t>21628357652</t>
+        </is>
+      </c>
+      <c r="B920" t="inlineStr">
+        <is>
+          <t>这款电脑性能卓越，运行流畅，外观时尚大气，轻薄便携。屏幕清晰度高，色彩鲜艳，键盘手感舒适。散热效果也很好，长时间使用也不会过热。整体非常满意，值得推荐！</t>
+        </is>
+      </c>
+      <c r="C920" t="inlineStr">
+        <is>
+          <t>2024-10-24 16:44:44</t>
+        </is>
+      </c>
+      <c r="D920" t="n">
+        <v>5</v>
+      </c>
+      <c r="E920" t="n">
+        <v>2</v>
+      </c>
+      <c r="F920" t="n">
+        <v>1</v>
+      </c>
+      <c r="G920" t="inlineStr">
+        <is>
+          <t>无回复</t>
+        </is>
+      </c>
+    </row>
+    <row r="921">
+      <c r="A921" t="inlineStr">
+        <is>
+          <t>21589806819</t>
+        </is>
+      </c>
+      <c r="B921" t="inlineStr">
+        <is>
+          <t>这款游戏笔记本真是太棒了！超强性能，流畅运行各类大型游戏，画质高清细腻。散热效果也很好，长时间玩游戏也不怕过热。外观时尚炫酷，携带方便，绝对值得拥有！</t>
+        </is>
+      </c>
+      <c r="C921" t="inlineStr">
+        <is>
+          <t>2024-10-19 22:12:57</t>
+        </is>
+      </c>
+      <c r="D921" t="n">
+        <v>5</v>
+      </c>
+      <c r="E921" t="n">
+        <v>2</v>
+      </c>
+      <c r="F921" t="n">
+        <v>1</v>
+      </c>
+      <c r="G921" t="inlineStr">
+        <is>
+          <t>无回复</t>
+        </is>
+      </c>
+    </row>
+    <row r="922">
+      <c r="A922" t="inlineStr">
+        <is>
+          <t>20668508788</t>
+        </is>
+      </c>
+      <c r="B922" t="inlineStr">
+        <is>
+          <t>还可以  请问鼠标在哪领</t>
+        </is>
+      </c>
+      <c r="C922" t="inlineStr">
+        <is>
+          <t>2024-04-07 19:15:10</t>
+        </is>
+      </c>
+      <c r="D922" t="n">
+        <v>3</v>
+      </c>
+      <c r="E922" t="n">
+        <v>0</v>
+      </c>
+      <c r="F922" t="n">
+        <v>1</v>
+      </c>
+      <c r="G922" t="inlineStr">
+        <is>
+          <t>0. 小鸟能飞过沧海，是因为那头有等待。联想一直都在，是源于您的信赖~电脑包装内本身没有鼠标哦，若是店铺活动相关您可以和客服联系确认~后续使用中若有疑问，您可以关注微信公众号“联想”，联系在线攻城狮，或者您可以致电（400-990-8888）寻求帮助，我们会有完善的售后服务为您保驾护航。</t>
+        </is>
+      </c>
+    </row>
+    <row r="923">
+      <c r="A923" t="inlineStr">
+        <is>
+          <t>21704430744</t>
+        </is>
+      </c>
+      <c r="B923" t="inlineStr">
+        <is>
+          <t>外观漂亮，用起来很顺手，键盘手感也很好，一拿到后就开机试了一下，满血的速度。跑游戏很顺畅，自我感觉还是很满意的一款笔记本。画质也很清楚漂亮。</t>
+        </is>
+      </c>
+      <c r="C923" t="inlineStr">
+        <is>
+          <t>2024-11-05 11:41:19</t>
+        </is>
+      </c>
+      <c r="D923" t="n">
+        <v>5</v>
+      </c>
+      <c r="E923" t="n">
+        <v>2</v>
+      </c>
+      <c r="F923" t="n">
+        <v>1</v>
+      </c>
+      <c r="G923" t="inlineStr">
+        <is>
+          <t>无回复</t>
+        </is>
+      </c>
+    </row>
+    <row r="924">
+      <c r="A924" t="inlineStr">
+        <is>
+          <t>21583239211</t>
+        </is>
+      </c>
+      <c r="B924" t="inlineStr">
+        <is>
+          <t>京东专用包装盒，内衬垫防护到位。外形外观:16寸大小适中，颜色也可以。画面品质: 高清画质，看电影游戏画面逼真运行速度:可以不卡顿游戏效果:流畅运行速度也很快</t>
+        </is>
+      </c>
+      <c r="C924" t="inlineStr">
+        <is>
+          <t>2024-10-18 20:47:53</t>
+        </is>
+      </c>
+      <c r="D924" t="n">
+        <v>5</v>
+      </c>
+      <c r="E924" t="n">
+        <v>3</v>
+      </c>
+      <c r="F924" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="925">
+      <c r="A925" t="inlineStr">
+        <is>
+          <t>21692632264</t>
+        </is>
+      </c>
+      <c r="B925" t="inlineStr">
+        <is>
+          <t>联想游戏本性能强劲，运行流畅，可以轻松应对各种大型游戏。  散热效果出色，长时间游戏也不会出现过热卡顿现象。  屏幕显示效果清晰，色彩还原准确，带来沉浸式游戏体验。  键盘手感舒适，反馈灵敏，操作精准。  总体来说，联想游戏本是一款性价比很高的选择，值得推荐。</t>
+        </is>
+      </c>
+      <c r="C925" t="inlineStr">
+        <is>
+          <t>2024-11-03 14:18:28</t>
+        </is>
+      </c>
+      <c r="D925" t="n">
+        <v>5</v>
+      </c>
+      <c r="E925" t="n">
+        <v>2</v>
+      </c>
+      <c r="F925" t="n">
+        <v>1</v>
+      </c>
+      <c r="G925" t="inlineStr">
+        <is>
+          <t>无回复</t>
+        </is>
+      </c>
+    </row>
+    <row r="926">
+      <c r="A926" t="inlineStr">
+        <is>
+          <t>21541588833</t>
+        </is>
+      </c>
+      <c r="B926" t="inlineStr">
+        <is>
+          <t>外观方面简约大方，性能上也十分强劲，能够满足各种复杂的计算需求。外观设计简约而不简单，线条流畅，颜色搭配和谐，整体给人一种非常舒适的视觉感受。
+在性能方面能够轻松应对各种复杂任务，大型游戏、视频编辑等。散热性能也很好，长时间使用后也能稳定运行。
+电脑屏幕非常清晰，色彩鲜艳。看电影还是玩游戏，有非常棒的视觉效果。屏幕大小和分辨率恰到好处。</t>
+        </is>
+      </c>
+      <c r="C926" t="inlineStr">
+        <is>
+          <t>2024-10-11 14:59:38</t>
+        </is>
+      </c>
+      <c r="D926" t="n">
+        <v>5</v>
+      </c>
+      <c r="E926" t="n">
+        <v>2</v>
+      </c>
+      <c r="F926" t="n">
+        <v>1</v>
+      </c>
+      <c r="G926" t="inlineStr">
+        <is>
+          <t>0. 您的满意像夏日甘甜的泉水，浇灌我们的心灵~后期有任何需求，我们随时听候您的差遣，您的微笑是我们最大的幸福~</t>
+        </is>
+      </c>
+    </row>
+    <row r="927">
+      <c r="A927" t="inlineStr">
+        <is>
+          <t>21655389869</t>
+        </is>
+      </c>
+      <c r="B927" t="inlineStr">
+        <is>
+          <t>包装保护：非常完美，有泡沫支撑保护，不用害怕快递运损。
+外形外观：一如既往的帅。
+画面品质：高品质高帧率高画质。
+运行速度：r7000p运行没得说，基本上能运行所有打游戏了。
+游戏效果：pubg没有出现掉帧情况，目前表现良好。</t>
+        </is>
+      </c>
+      <c r="C927" t="inlineStr">
+        <is>
+          <t>2024-10-28 17:32:44</t>
+        </is>
+      </c>
+      <c r="D927" t="n">
+        <v>5</v>
+      </c>
+      <c r="E927" t="n">
+        <v>2</v>
+      </c>
+      <c r="F927" t="n">
+        <v>1</v>
+      </c>
+      <c r="G927" t="inlineStr">
+        <is>
+          <t>无回复</t>
+        </is>
+      </c>
+    </row>
+    <row r="928">
+      <c r="A928" t="inlineStr">
+        <is>
+          <t>21709676409</t>
+        </is>
+      </c>
+      <c r="B928" t="inlineStr">
+        <is>
+          <t>包装保护：纸箱包裹海绵保护，保护得很好，运输没有破损
+外形外观：重量比较重笔记游戏本，15.6寸看起来比之前的14寸要大很多，外观中规中矩
+画面品质：2.5k165Hz刷新率，游戏画质非常高，帧率也高，
+运行速度：运行速度非常快，就是野兽模式风扇声音非常大，
+游戏效果：黑神话大部分场景适配，只有小西天苦海北岸的雪地有时候有小黑块，还有筋斗云是马赛克，其他帧率和画质都ok</t>
+        </is>
+      </c>
+      <c r="C928" t="inlineStr">
+        <is>
+          <t>2024-11-06 09:37:25</t>
+        </is>
+      </c>
+      <c r="D928" t="n">
+        <v>5</v>
+      </c>
+      <c r="E928" t="n">
+        <v>2</v>
+      </c>
+      <c r="F928" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="929">
+      <c r="A929" t="inlineStr">
+        <is>
+          <t>21612118241</t>
+        </is>
+      </c>
+      <c r="B929" t="inlineStr">
+        <is>
+          <t>联想拯救者笔记本电脑非常出色！外观炫酷，性能强劲。运行速度快，无论是游戏还是办公都能轻松应对。散热良好，长时间使用也不会发烫。屏幕显示清晰，色彩鲜艳。总之，这是一款性价比超高的笔记本，强烈推荐！</t>
+        </is>
+      </c>
+      <c r="C929" t="inlineStr">
+        <is>
+          <t>2024-10-22 21:16:31</t>
+        </is>
+      </c>
+      <c r="D929" t="n">
+        <v>5</v>
+      </c>
+      <c r="E929" t="n">
+        <v>2</v>
+      </c>
+      <c r="F929" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="930">
+      <c r="A930" t="inlineStr">
+        <is>
+          <t>21665115332</t>
+        </is>
+      </c>
+      <c r="B930" t="inlineStr">
+        <is>
+          <t>这款联想拯救者Y7000P游戏笔记本电脑配置强大，搭载了第14代英特尔酷睿i7处理器和RTX 4060显卡，性能表现出色。2.5K高分高刷全面屏提供了清晰细腻的视觉体验，非常适合游戏玩家和高性能需求用户。整体设计时尚，散热效果好，运行稳定，是一款值得推荐的游戏本。</t>
+        </is>
+      </c>
+      <c r="C930" t="inlineStr">
+        <is>
+          <t>2024-10-30 00:40:54</t>
+        </is>
+      </c>
+      <c r="D930" t="n">
+        <v>5</v>
+      </c>
+      <c r="E930" t="n">
+        <v>3</v>
+      </c>
+      <c r="F930" t="n">
+        <v>1</v>
+      </c>
+      <c r="G930" t="inlineStr">
+        <is>
+          <t>无回复</t>
+        </is>
+      </c>
+    </row>
+    <row r="931">
+      <c r="A931" t="inlineStr">
+        <is>
+          <t>21593260330</t>
+        </is>
+      </c>
+      <c r="B931" t="inlineStr">
+        <is>
+          <t>性能很好，使用起来非常的流程，很好，logo大y很帅，很喜欢，简洁明了，实用性强，体验极佳，超出预期，非常满意，值得推荐！</t>
+        </is>
+      </c>
+      <c r="C931" t="inlineStr">
+        <is>
+          <t>2024-10-20 13:00:47</t>
+        </is>
+      </c>
+      <c r="D931" t="n">
+        <v>5</v>
+      </c>
+      <c r="E931" t="n">
+        <v>2</v>
+      </c>
+      <c r="F931" t="n">
+        <v>1</v>
+      </c>
+      <c r="G931" t="inlineStr">
+        <is>
+          <t>无回复</t>
+        </is>
+      </c>
+    </row>
+    <row r="932">
+      <c r="A932" t="inlineStr">
+        <is>
+          <t>21700406536</t>
+        </is>
+      </c>
+      <c r="B932" t="inlineStr">
+        <is>
+          <t>在包装上非常好，有两层纸箱，一层是电脑自带的，另一层是京东快递的纸箱。保护措施很好，能有效防止电脑损坏
+电脑开机速度很快，而且运行程序都很流畅，目前没有发现有问题出现，很满意
+我这台电脑是4050的，跑分除了显卡问题外，整体
+高达160万分，性能很不错
+总之目前使用感觉挺好的，目前没有问题出现，不知道再使用段时间会咋样</t>
+        </is>
+      </c>
+      <c r="C932" t="inlineStr">
+        <is>
+          <t>2024-11-04 18:14:18</t>
+        </is>
+      </c>
+      <c r="D932" t="n">
+        <v>5</v>
+      </c>
+      <c r="E932" t="n">
+        <v>3</v>
+      </c>
+      <c r="F932" t="n">
+        <v>1</v>
+      </c>
+      <c r="G932" t="inlineStr">
+        <is>
+          <t>无回复</t>
+        </is>
+      </c>
+    </row>
+    <row r="933">
+      <c r="A933" t="inlineStr">
+        <is>
+          <t>21698595488</t>
+        </is>
+      </c>
+      <c r="B933" t="inlineStr">
+        <is>
+          <t>电脑很棒，速度杠杠的，用来做点工作和玩玩游戏简直不要太棒了，外形也很喜欢，特别喜欢联想电脑屏幕能完全放平。虽然没什么用，但感觉能做到这点说明质量不错，目前开机正在做各种测试，另外1T硬盘目前感觉有点偏小，自己已经购买了2T的固态准备加上了，这个配置应该能用好几年了。</t>
+        </is>
+      </c>
+      <c r="C933" t="inlineStr">
+        <is>
+          <t>2024-11-04 13:05:10</t>
+        </is>
+      </c>
+      <c r="D933" t="n">
+        <v>5</v>
+      </c>
+      <c r="E933" t="n">
+        <v>2</v>
+      </c>
+      <c r="F933" t="n">
+        <v>1</v>
+      </c>
+      <c r="G933" t="inlineStr">
+        <is>
+          <t>无回复</t>
+        </is>
+      </c>
+    </row>
+    <row r="934">
+      <c r="A934" t="inlineStr">
+        <is>
+          <t>21645935805</t>
+        </is>
+      </c>
+      <c r="B934" t="inlineStr">
+        <is>
+          <t>键盘手感很好，非常细腻。键盘背光灯很柔和，尤其有数字小键盘，不用接外接键盘，很实用。另外摄像头开关非常实用，能妥妥的保护隐私。电源适配器很威武能充分保障电力供给。</t>
+        </is>
+      </c>
+      <c r="C934" t="inlineStr">
+        <is>
+          <t>2024-10-27 03:41:39</t>
+        </is>
+      </c>
+      <c r="D934" t="n">
+        <v>5</v>
+      </c>
+      <c r="E934" t="n">
+        <v>3</v>
+      </c>
+      <c r="F934" t="n">
+        <v>1</v>
+      </c>
+      <c r="G934" t="inlineStr">
+        <is>
+          <t>无回复</t>
+        </is>
+      </c>
+    </row>
+    <row r="935">
+      <c r="A935" t="inlineStr">
+        <is>
+          <t>21708687106</t>
+        </is>
+      </c>
+      <c r="B935" t="inlineStr">
+        <is>
+          <t>电脑性能很好，处理器配置不错，性能很稳定，散热也不错，玩游戏一点都不卡，屏幕画质感很棒，很带劲，老公很喜欢，值得购买！！</t>
+        </is>
+      </c>
+      <c r="C935" t="inlineStr">
+        <is>
+          <t>2024-11-05 23:33:31</t>
+        </is>
+      </c>
+      <c r="D935" t="n">
+        <v>5</v>
+      </c>
+      <c r="E935" t="n">
+        <v>3</v>
+      </c>
+      <c r="F935" t="n">
+        <v>1</v>
+      </c>
+      <c r="G935" t="inlineStr">
+        <is>
+          <t>无回复</t>
+        </is>
+      </c>
+    </row>
+    <row r="936">
+      <c r="A936" t="inlineStr">
+        <is>
+          <t>21687616979</t>
+        </is>
+      </c>
+      <c r="B936" t="inlineStr">
+        <is>
+          <t>有点小卡，总体蛮好的，打游戏还没体验，在努力学习中，快递非常给力，30号下单，上午中午下单晚，第二天中午就到了，大概24小时左右快递速度非常的给力，笔记本是新机找人用过的，总体来说非常满意，我不怎么打游戏，所以还没有试他的游戏体验，但是感觉总体来说不错，屏幕也很大</t>
+        </is>
+      </c>
+      <c r="C936" t="inlineStr">
+        <is>
+          <t>2024-11-02 15:22:43</t>
+        </is>
+      </c>
+      <c r="D936" t="n">
+        <v>5</v>
+      </c>
+      <c r="E936" t="n">
+        <v>2</v>
+      </c>
+      <c r="F936" t="n">
+        <v>1</v>
+      </c>
+      <c r="G936" t="inlineStr">
+        <is>
+          <t>无回复</t>
+        </is>
+      </c>
+    </row>
+    <row r="937">
+      <c r="A937" t="inlineStr">
+        <is>
+          <t>21690331324</t>
+        </is>
+      </c>
+      <c r="B937" t="inlineStr">
+        <is>
+          <t>超能电竞Y7000P 2024，关注对比了好久才下手此款笔记本电脑，配置不错,性价比较高，开机反应比较快，笔记本电脑用做平时的办公，相当不错，你值得拥有。越看越喜欢,办公游戏刷剧一举多得。</t>
+        </is>
+      </c>
+      <c r="C937" t="inlineStr">
+        <is>
+          <t>2024-11-03 00:58:22</t>
+        </is>
+      </c>
+      <c r="D937" t="n">
+        <v>5</v>
+      </c>
+      <c r="E937" t="n">
+        <v>3</v>
+      </c>
+      <c r="F937" t="n">
+        <v>1</v>
+      </c>
+      <c r="G937" t="inlineStr">
+        <is>
+          <t>无回复</t>
+        </is>
+      </c>
+    </row>
+    <row r="938">
+      <c r="A938" t="inlineStr">
+        <is>
+          <t>21680690952</t>
+        </is>
+      </c>
+      <c r="B938" t="inlineStr">
+        <is>
+          <t>这款联想笔记本电脑真的是太赞了，	外观时尚又	
+大气。而且性能也非常强大，操作起来简直就是丝滑流畅!尤其是它的电池续航能力,让我每天工作学习都充满电，再也不用担心电量不足啦~</t>
+        </is>
+      </c>
+      <c r="C938" t="inlineStr">
+        <is>
+          <t>2024-11-01 10:41:22</t>
+        </is>
+      </c>
+      <c r="D938" t="n">
+        <v>5</v>
+      </c>
+      <c r="E938" t="n">
+        <v>3</v>
+      </c>
+      <c r="F938" t="n">
+        <v>1</v>
+      </c>
+      <c r="G938" t="inlineStr">
+        <is>
+          <t>无回复</t>
+        </is>
+      </c>
+    </row>
+    <row r="939">
+      <c r="A939" t="inlineStr">
+        <is>
+          <t>21704586730</t>
+        </is>
+      </c>
+      <c r="B939" t="inlineStr">
+        <is>
+          <t>买来用于学习编程，赶上国补，性价比超高，运行流畅，内存和硬盘可扩展，独立显卡，画面流畅，运行编程软件，ps，cad等软件，不卡顿，效率高，值得购买，内置正版软件，售后服务也方便！</t>
+        </is>
+      </c>
+      <c r="C939" t="inlineStr">
+        <is>
+          <t>2024-11-05 11:55:32</t>
+        </is>
+      </c>
+      <c r="D939" t="n">
+        <v>5</v>
+      </c>
+      <c r="E939" t="n">
+        <v>2</v>
+      </c>
+      <c r="F939" t="n">
+        <v>1</v>
+      </c>
+      <c r="G939" t="inlineStr">
+        <is>
+          <t>无回复</t>
+        </is>
+      </c>
+    </row>
+    <row r="940">
+      <c r="A940" t="inlineStr">
+        <is>
+          <t>21683833978</t>
+        </is>
+      </c>
+      <c r="B940" t="inlineStr">
+        <is>
+          <t>包装保护：包装的非常厚实 没有任何的破损
+外形外观：这个电脑的外观实在是太深得我心了 很喜欢
+画面品质：画面很高清 分辨率很高 没有失望
+运行速度：运行速度非常流畅，非常值得购买。这就是大品牌的信赖力</t>
+        </is>
+      </c>
+      <c r="C940" t="inlineStr">
+        <is>
+          <t>2024-11-01 20:42:22</t>
+        </is>
+      </c>
+      <c r="D940" t="n">
+        <v>5</v>
+      </c>
+      <c r="E940" t="n">
+        <v>3</v>
+      </c>
+      <c r="F940" t="n">
+        <v>1</v>
+      </c>
+      <c r="G940" t="inlineStr">
+        <is>
+          <t>无回复</t>
+        </is>
+      </c>
+    </row>
+    <row r="941">
+      <c r="A941" t="inlineStr">
+        <is>
+          <t>21554366983</t>
+        </is>
+      </c>
+      <c r="B941" t="inlineStr">
+        <is>
+          <t>这款笔记本电脑性能出色，运行速度快。屏幕清晰，色彩鲜艳。外观时尚大气，轻薄便携。散热良好，续航能力也不错。客服态度好，售后有保障。非常满意，强烈推荐给大家。</t>
+        </is>
+      </c>
+      <c r="C941" t="inlineStr">
+        <is>
+          <t>2024-10-13 21:07:58</t>
+        </is>
+      </c>
+      <c r="D941" t="n">
+        <v>5</v>
+      </c>
+      <c r="E941" t="n">
+        <v>2</v>
+      </c>
+      <c r="F941" t="n">
+        <v>1</v>
+      </c>
+      <c r="G941" t="inlineStr">
+        <is>
+          <t>无回复</t>
+        </is>
+      </c>
+    </row>
+    <row r="942">
+      <c r="A942" t="inlineStr">
+        <is>
+          <t>21725537391</t>
+        </is>
+      </c>
+      <c r="B942" t="inlineStr">
+        <is>
+          <t>激活的时候突然这样了，，，</t>
+        </is>
+      </c>
+      <c r="C942" t="inlineStr">
+        <is>
+          <t>2024-11-08 13:04:55</t>
+        </is>
+      </c>
+      <c r="D942" t="n">
+        <v>3</v>
+      </c>
+      <c r="E942" t="n">
+        <v>0</v>
+      </c>
+      <c r="F942" t="n">
+        <v>1</v>
+      </c>
+      <c r="G942" t="inlineStr">
+        <is>
+          <t>0. 尊敬的拯救者用户您好，请问是初次配置界面出现黑屏现象吗，关于您的问题可能是微软服务器不稳定导致初次配置异常，建议您重启电脑反馈在线工程师指导您命令提示符进入系统呢，我们有完善的售后服务可以为您保驾护航的，后续使用过程中有任何需要帮助的都可以直接回复我，或者咨询店铺在线工程师为您解答处理，我们一定帮您解决机器的问题，感谢您的支持，联想感恩一路与您相随，愿您事事顺心如意。</t>
+        </is>
+      </c>
+    </row>
+    <row r="943">
+      <c r="A943" t="inlineStr">
+        <is>
+          <t>21576132413</t>
+        </is>
+      </c>
+      <c r="B943" t="inlineStr">
+        <is>
+          <t>包装非常扎实，到货无损伤，开机快，很给力，完美，运行非常快，打游戏完全不耽误，再也不怕小伙伴开黑卡顿，非常满意，会推荐给朋友</t>
+        </is>
+      </c>
+      <c r="C943" t="inlineStr">
+        <is>
+          <t>2024-10-17 18:39:53</t>
+        </is>
+      </c>
+      <c r="D943" t="n">
+        <v>5</v>
+      </c>
+      <c r="E943" t="n">
+        <v>2</v>
+      </c>
+      <c r="F943" t="n">
+        <v>1</v>
+      </c>
+      <c r="G943" t="inlineStr">
+        <is>
+          <t>无回复</t>
+        </is>
+      </c>
+    </row>
+    <row r="944">
+      <c r="A944" t="inlineStr">
+        <is>
+          <t>21695599970</t>
+        </is>
+      </c>
+      <c r="B944" t="inlineStr">
+        <is>
+          <t>联想电脑黑神话悟空版本给我留下了深刻的印象。首先,它的外观设计独特,充满了中国传统文化元素,让人眼前一亮。其次,性能方面表现出色,运行流畅,无论是游戏还是办公都能轻松应对。最后,它的散热效果也相当不错,长时间使用也不会过热。总的来说,这款电脑性价比高,值得推荐。</t>
+        </is>
+      </c>
+      <c r="C944" t="inlineStr">
+        <is>
+          <t>2024-11-03 23:39:18</t>
+        </is>
+      </c>
+      <c r="D944" t="n">
+        <v>5</v>
+      </c>
+      <c r="E944" t="n">
+        <v>3</v>
+      </c>
+      <c r="F944" t="n">
+        <v>1</v>
+      </c>
+      <c r="G944" t="inlineStr">
+        <is>
+          <t>无回复</t>
+        </is>
+      </c>
+    </row>
+    <row r="945">
+      <c r="A945" t="inlineStr">
+        <is>
+          <t>21656367024</t>
+        </is>
+      </c>
+      <c r="B945" t="inlineStr">
+        <is>
+          <t>这款联想拯救者笔记本电脑，专为游戏爱好者设计，配置高端，性能卓越。其强大的处理器和专业级显卡确保了游戏运行流畅无阻，画面清晰细腻。散热系统表现优异，即使长时间高强度使用也能保持稳定。键盘手感出色，给游戏体验加分不少。外观设计充满科技感，细节处理精致，让人爱不释手。总的来说，这是一款性价比极高的游戏本，非常推荐给追求极致游戏体验的玩家。</t>
+        </is>
+      </c>
+      <c r="C945" t="inlineStr">
+        <is>
+          <t>2024-10-28 19:57:58</t>
+        </is>
+      </c>
+      <c r="D945" t="n">
+        <v>5</v>
+      </c>
+      <c r="E945" t="n">
+        <v>2</v>
+      </c>
+      <c r="F945" t="n">
+        <v>1</v>
+      </c>
+      <c r="G945" t="inlineStr">
+        <is>
+          <t>无回复</t>
+        </is>
+      </c>
+    </row>
+    <row r="946">
+      <c r="A946" t="inlineStr">
+        <is>
+          <t>21631427823</t>
+        </is>
+      </c>
+      <c r="B946" t="inlineStr">
+        <is>
+          <t>电脑收到了，联想大牌子游戏笔记本，超极&amp;acute;酷的，包装很好，电脑画质特别绝绝子
+超出预期，质量很好，做工精细，满意
+发货很快，已经收到货了，商品和描述的差不多，质量没问题，关键价格也合适，在这里买还是很放心的，好评！</t>
+        </is>
+      </c>
+      <c r="C946" t="inlineStr">
+        <is>
+          <t>2024-10-24 22:50:27</t>
+        </is>
+      </c>
+      <c r="D946" t="n">
+        <v>5</v>
+      </c>
+      <c r="E946" t="n">
+        <v>3</v>
+      </c>
+      <c r="F946" t="n">
+        <v>1</v>
+      </c>
+      <c r="G946" t="inlineStr">
+        <is>
+          <t>无回复</t>
+        </is>
+      </c>
+    </row>
+    <row r="947">
+      <c r="A947" t="inlineStr">
+        <is>
+          <t>21639292116</t>
+        </is>
+      </c>
+      <c r="B947" t="inlineStr">
+        <is>
+          <t>包装完美，外形美观，外观高端大气上档次，画面清晰，眼睛看着不累眼睛，运行速度快，玩游戏效果也不卡，运行稳定，总体来说很满意！</t>
+        </is>
+      </c>
+      <c r="C947" t="inlineStr">
+        <is>
+          <t>2024-10-25 23:31:03</t>
+        </is>
+      </c>
+      <c r="D947" t="n">
+        <v>5</v>
+      </c>
+      <c r="E947" t="n">
+        <v>4</v>
+      </c>
+      <c r="F947" t="n">
+        <v>1</v>
+      </c>
+      <c r="G947" t="inlineStr">
+        <is>
+          <t>无回复</t>
+        </is>
+      </c>
+    </row>
+    <row r="948">
+      <c r="A948" t="inlineStr">
+        <is>
+          <t>21654528610</t>
+        </is>
+      </c>
+      <c r="B948" t="inlineStr">
+        <is>
+          <t>特别好，特别喜欢这个电脑，价格优惠立马就下单了，收到货特别的喜欢，太赞了
+画面品质：画质特别高清，
+外形外观：非常好看
+运行速度：运行速度非常快
+跑分评测：物流也特别快，</t>
+        </is>
+      </c>
+      <c r="C948" t="inlineStr">
+        <is>
+          <t>2024-10-28 15:11:28</t>
+        </is>
+      </c>
+      <c r="D948" t="n">
+        <v>5</v>
+      </c>
+      <c r="E948" t="n">
+        <v>2</v>
+      </c>
+      <c r="F948" t="n">
+        <v>1</v>
+      </c>
+      <c r="G948" t="inlineStr">
+        <is>
+          <t>无回复</t>
+        </is>
+      </c>
+    </row>
+    <row r="949">
+      <c r="A949" t="inlineStr">
+        <is>
+          <t>21553538724</t>
+        </is>
+      </c>
+      <c r="B949" t="inlineStr">
+        <is>
+          <t>买的英特尔酷睿14代HX版本，包装保护的很好，
+没有破损，外观颜值很高，画质好，跑分快，各种
+3a游戏都能玩，接口丰富做工质量很好，拯救者yyds！</t>
+        </is>
+      </c>
+      <c r="C949" t="inlineStr">
+        <is>
+          <t>2024-10-13 17:46:50</t>
+        </is>
+      </c>
+      <c r="D949" t="n">
+        <v>5</v>
+      </c>
+      <c r="E949" t="n">
+        <v>2</v>
+      </c>
+      <c r="F949" t="n">
+        <v>1</v>
+      </c>
+      <c r="G949" t="inlineStr">
+        <is>
+          <t>无回复</t>
+        </is>
+      </c>
+    </row>
+    <row r="950">
+      <c r="A950" t="inlineStr">
+        <is>
+          <t>21727517643</t>
+        </is>
+      </c>
+      <c r="B950" t="inlineStr">
+        <is>
+          <t>这款电脑的性能真的太棒了，玩游戏完全不卡顿，加载速度也很快！屏幕显示效果非常清晰，色彩也很鲜艳，看电影和玩游戏都非常爽！这款电脑的外观真的太酷了，我很喜欢这种科技感的设计。</t>
+        </is>
+      </c>
+      <c r="C950" t="inlineStr">
+        <is>
+          <t>2024-11-08 16:56:50</t>
+        </is>
+      </c>
+      <c r="D950" t="n">
+        <v>5</v>
+      </c>
+      <c r="E950" t="n">
+        <v>2</v>
+      </c>
+      <c r="F950" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="951">
+      <c r="A951" t="inlineStr">
+        <is>
+          <t>21657769611</t>
+        </is>
+      </c>
+      <c r="B951" t="inlineStr">
+        <is>
+          <t>简直太棒了！颜值太高了这款电脑，性能超级强，玩游戏嘎嘎快！一点都不卡！散热也很给力，续航很长！关键是处理器真的快！帧率很高！</t>
+        </is>
+      </c>
+      <c r="C951" t="inlineStr">
+        <is>
+          <t>2024-10-28 23:13:18</t>
+        </is>
+      </c>
+      <c r="D951" t="n">
+        <v>5</v>
+      </c>
+      <c r="E951" t="n">
+        <v>2</v>
+      </c>
+      <c r="F951" t="n">
+        <v>1</v>
+      </c>
+      <c r="G951" t="inlineStr">
+        <is>
+          <t>无回复</t>
+        </is>
+      </c>
+    </row>
+    <row r="952">
+      <c r="A952" t="inlineStr">
+        <is>
+          <t>21617070098</t>
+        </is>
+      </c>
+      <c r="B952" t="inlineStr">
+        <is>
+          <t>非常不错的电脑，配上补贴价格真不错啊，包装也很好物流很快两天就收到了，打打游戏看看后续使用情况
+游戏效果：3a随便玩
+跑分评测：正常三分
+包装保护：很好
+画面品质：流畅运行</t>
+        </is>
+      </c>
+      <c r="C952" t="inlineStr">
+        <is>
+          <t>2024-10-23 13:26:57</t>
+        </is>
+      </c>
+      <c r="D952" t="n">
+        <v>5</v>
+      </c>
+      <c r="E952" t="n">
+        <v>2</v>
+      </c>
+      <c r="F952" t="n">
+        <v>1</v>
+      </c>
+      <c r="G952" t="inlineStr">
+        <is>
+          <t>无回复</t>
+        </is>
+      </c>
+    </row>
+    <row r="953">
+      <c r="A953" t="inlineStr">
+        <is>
+          <t>21670916549</t>
+        </is>
+      </c>
+      <c r="B953" t="inlineStr">
+        <is>
+          <t>笔记本运行流畅，玩游戏很舒服，每天都要玩很久的游戏，测底迷上了有游戏，笔记本带出去特别有面子，就像带了什么东西一样，质量很好，值得购买，</t>
+        </is>
+      </c>
+      <c r="C953" t="inlineStr">
+        <is>
+          <t>2024-10-30 18:03:39</t>
+        </is>
+      </c>
+      <c r="D953" t="n">
+        <v>5</v>
+      </c>
+      <c r="E953" t="n">
+        <v>2</v>
+      </c>
+      <c r="F953" t="n">
+        <v>1</v>
+      </c>
+      <c r="G953" t="inlineStr">
+        <is>
+          <t>无回复</t>
+        </is>
+      </c>
+    </row>
+    <row r="954">
+      <c r="A954" t="inlineStr">
+        <is>
+          <t>21697838533</t>
+        </is>
+      </c>
+      <c r="B954" t="inlineStr">
+        <is>
+          <t>包装保护：外包装崭新
+外形外观：好
+画面品质：画质特别好
+运行速度：运行顺畅
+游戏效果：打游戏嘎嘎好</t>
+        </is>
+      </c>
+      <c r="C954" t="inlineStr">
+        <is>
+          <t>2024-11-04 11:04:14</t>
+        </is>
+      </c>
+      <c r="D954" t="n">
+        <v>5</v>
+      </c>
+      <c r="E954" t="n">
+        <v>4</v>
+      </c>
+      <c r="F954" t="n">
+        <v>1</v>
+      </c>
+      <c r="G954" t="inlineStr">
+        <is>
+          <t>无回复</t>
+        </is>
+      </c>
+    </row>
+    <row r="955">
+      <c r="A955" t="inlineStr">
+        <is>
+          <t>21712421883</t>
+        </is>
+      </c>
+      <c r="B955" t="inlineStr">
+        <is>
+          <t>联想是老牌子了 买电脑还是比较心意联想 心里放心，给弟弟买的，他说很不错 没有遇到技术上的问题 而且游戏也很不错24款散热真的很好很好，GPU的温度把控的特别好 打游戏温度都不错 外观也很不错 屏幕比例真的是吸引力</t>
+        </is>
+      </c>
+      <c r="C955" t="inlineStr">
+        <is>
+          <t>2024-11-06 19:04:36</t>
+        </is>
+      </c>
+      <c r="D955" t="n">
+        <v>5</v>
+      </c>
+      <c r="E955" t="n">
+        <v>3</v>
+      </c>
+      <c r="F955" t="n">
+        <v>1</v>
+      </c>
+      <c r="G955" t="inlineStr">
+        <is>
+          <t>无回复</t>
+        </is>
+      </c>
+    </row>
+    <row r="956">
+      <c r="A956" t="inlineStr">
+        <is>
+          <t>21589407102</t>
+        </is>
+      </c>
+      <c r="B956" t="inlineStr">
+        <is>
+          <t>超棒，配置高，性能本超级顺畅，这配置我在家作图，玩游戏，办公样样俱全的配置，一机多用，而且重量做的也不重，外带也方便非常推荐购买</t>
+        </is>
+      </c>
+      <c r="C956" t="inlineStr">
+        <is>
+          <t>2024-10-19 21:02:10</t>
+        </is>
+      </c>
+      <c r="D956" t="n">
+        <v>5</v>
+      </c>
+      <c r="E956" t="n">
+        <v>3</v>
+      </c>
+      <c r="F956" t="n">
+        <v>1</v>
+      </c>
+      <c r="G956" t="inlineStr">
+        <is>
+          <t>无回复</t>
+        </is>
+      </c>
+    </row>
+    <row r="957">
+      <c r="A957" t="inlineStr">
+        <is>
+          <t>21543247648</t>
+        </is>
+      </c>
+      <c r="B957" t="inlineStr">
+        <is>
+          <t>电脑性能很好，打游戏的体验感很好
+联想拯救者【黑神话：悟空定制版】
+这个太酷酷酷酷啦！
+我觉得这个联名是zui自然的啦，游戏本儿配游戏，天作之合啊～
+最好的是，联想拯救者官方号也下场玩梗了，好评+1</t>
+        </is>
+      </c>
+      <c r="C957" t="inlineStr">
+        <is>
+          <t>2024-10-11 20:19:19</t>
+        </is>
+      </c>
+      <c r="D957" t="n">
+        <v>5</v>
+      </c>
+      <c r="E957" t="n">
+        <v>2</v>
+      </c>
+      <c r="F957" t="n">
+        <v>1</v>
+      </c>
+      <c r="G957" t="inlineStr">
+        <is>
+          <t>无回复</t>
+        </is>
+      </c>
+    </row>
+    <row r="958">
+      <c r="A958" t="inlineStr">
+        <is>
+          <t>21644847941</t>
+        </is>
+      </c>
+      <c r="B958" t="inlineStr">
+        <is>
+          <t>联想笔记本电脑质量超棒，外观时尚大气。游戏运行十分流畅，不卡顿不掉帧。散热良好，长时间使用也无压力。2024 年，它是我的工作娱乐好伙伴。</t>
+        </is>
+      </c>
+      <c r="C958" t="inlineStr">
+        <is>
+          <t>2024-10-26 22:12:43</t>
+        </is>
+      </c>
+      <c r="D958" t="n">
+        <v>5</v>
+      </c>
+      <c r="E958" t="n">
+        <v>6</v>
+      </c>
+      <c r="F958" t="n">
+        <v>1</v>
+      </c>
+      <c r="G958" t="inlineStr">
+        <is>
+          <t>无回复</t>
+        </is>
+      </c>
+    </row>
+    <row r="959">
+      <c r="A959" t="inlineStr">
+        <is>
+          <t>21718155849</t>
+        </is>
+      </c>
+      <c r="B959" t="inlineStr">
+        <is>
+          <t>电脑颜值不错，外观设计也不错，性能也满足日常办公需求，基本没什么卡顿表现良好，玩游戏也很流畅，屏幕大舒适顺眼，续航时间也良好。</t>
+        </is>
+      </c>
+      <c r="C959" t="inlineStr">
+        <is>
+          <t>2024-11-07 17:14:01</t>
+        </is>
+      </c>
+      <c r="D959" t="n">
+        <v>5</v>
+      </c>
+      <c r="E959" t="n">
+        <v>2</v>
+      </c>
+      <c r="F959" t="n">
+        <v>1</v>
+      </c>
+      <c r="G959" t="inlineStr">
+        <is>
+          <t>无回复</t>
+        </is>
+      </c>
+    </row>
+    <row r="960">
+      <c r="A960" t="inlineStr">
+        <is>
+          <t>21638575406</t>
+        </is>
+      </c>
+      <c r="B960" t="inlineStr">
+        <is>
+          <t>宝贝质量很好，物流超快。运行速度很快，开机非常快，很好用。屏幕大，看电影玩游戏非常过瘾。支持国货联想是非常棒的企业。非常满意的一次网购！</t>
+        </is>
+      </c>
+      <c r="C960" t="inlineStr">
+        <is>
+          <t>2024-10-25 22:17:09</t>
+        </is>
+      </c>
+      <c r="D960" t="n">
+        <v>5</v>
+      </c>
+      <c r="E960" t="n">
+        <v>3</v>
+      </c>
+      <c r="F960" t="n">
+        <v>1</v>
+      </c>
+      <c r="G960" t="inlineStr"/>
+    </row>
+    <row r="961">
+      <c r="A961" t="inlineStr">
+        <is>
+          <t>21692061741</t>
+        </is>
+      </c>
+      <c r="B961" t="inlineStr">
+        <is>
+          <t>说起这个电脑，买的真是时候，赶上政府补贴，超值性价比买下，
+画面品质：超舒适，外包装无破损，加了两层箱子，都没有磕磕碰碰啥的，打起游戏也很好</t>
+        </is>
+      </c>
+      <c r="C961" t="inlineStr">
+        <is>
+          <t>2024-11-03 12:28:42</t>
+        </is>
+      </c>
+      <c r="D961" t="n">
+        <v>5</v>
+      </c>
+      <c r="E961" t="n">
+        <v>2</v>
+      </c>
+      <c r="F961" t="n">
+        <v>1</v>
+      </c>
+      <c r="G961" t="inlineStr">
+        <is>
+          <t>无回复</t>
+        </is>
+      </c>
+    </row>
+    <row r="962">
+      <c r="A962" t="inlineStr">
+        <is>
+          <t>21712689482</t>
+        </is>
+      </c>
+      <c r="B962" t="inlineStr">
+        <is>
+          <t>这款商品真是让人眼前一亮，各个方面的表现都非常出色，绝对值得五星好评！用起来非常顺手，外观设计也很精致，运行速度飞快，画面品质更是无可挑剔，细节处理得也非常到位。总之，强烈推荐给大家！🌟🌟🌟🌟🌟</t>
+        </is>
+      </c>
+      <c r="C962" t="inlineStr">
+        <is>
+          <t>2024-11-06 19:53:59</t>
+        </is>
+      </c>
+      <c r="D962" t="n">
+        <v>5</v>
+      </c>
+      <c r="E962" t="n">
+        <v>2</v>
+      </c>
+      <c r="F962" t="n">
+        <v>1</v>
+      </c>
+      <c r="G962" t="inlineStr">
+        <is>
+          <t>无回复</t>
+        </is>
+      </c>
+    </row>
+    <row r="963">
+      <c r="A963" t="inlineStr">
+        <is>
+          <t>21670202995</t>
+        </is>
+      </c>
+      <c r="B963" t="inlineStr">
+        <is>
+          <t>这款联想拯救者使用体验不错，性能强劲，运行速度流畅，屏幕显示清晰，做工比较有质感，日常工作还是娱乐用起来比较顺手，细节处理也很到位，值得购买</t>
+        </is>
+      </c>
+      <c r="C963" t="inlineStr">
+        <is>
+          <t>2024-10-30 16:31:07</t>
+        </is>
+      </c>
+      <c r="D963" t="n">
+        <v>5</v>
+      </c>
+      <c r="E963" t="n">
+        <v>2</v>
+      </c>
+      <c r="F963" t="n">
+        <v>1</v>
+      </c>
+      <c r="G963" t="inlineStr">
+        <is>
+          <t>无回复</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
